--- a/mixs-templates/MimarksS_plus_combinations/MimarksSAgriculture.xlsx
+++ b/mixs-templates/MimarksS_plus_combinations/MimarksSAgriculture.xlsx
@@ -1299,7 +1299,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
@@ -1315,11 +1315,17 @@
     <dataValidation sqref="BK2:BK1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"brackish,canal,collected rainwater,ditch,estuary,freshwater,lake,manmade,melt pond,municipal,natural,pond,reservior,river,saline,storage tank,stream,well"</formula1>
     </dataValidation>
+    <dataValidation sqref="BN2:BN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
+    </dataValidation>
     <dataValidation sqref="CV2:CV1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
     </dataValidation>
     <dataValidation sqref="DZ2:DZ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobic,anaerobic,other"</formula1>
+    </dataValidation>
+    <dataValidation sqref="EB2:EB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
     </dataValidation>
     <dataValidation sqref="EI2:EI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"A horizon,B horizon,C horizon,E horizon,O horizon,Permafrost,R layer"</formula1>
